--- a/premise/data/additional_inventories/lci-cdr-biochar.xlsx
+++ b/premise/data/additional_inventories/lci-cdr-biochar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9924D7-8C79-864D-BC0E-38064BF9DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBD2C6-8A2B-1946-9744-BA07E59AB823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="birch" sheetId="2" r:id="rId1"/>
@@ -1382,9 +1382,6 @@
     <t>Carbon dioxide, non-fossil (released later, non-stable)</t>
   </si>
   <si>
-    <t>mg/kg  source https://doi.org/10.1016/j.envpol.2012.07.009.</t>
-  </si>
-  <si>
     <t>A (code)</t>
   </si>
   <si>
@@ -1462,6 +1459,9 @@
   </si>
   <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t>1.15 mg/kg  source https://doi.org/10.1016/j.envpol.2012.07.009.</t>
   </si>
 </sst>
 </file>
@@ -3391,7 +3391,7 @@
         <v>267</v>
       </c>
       <c r="O37" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P37" s="164"/>
     </row>
@@ -4648,13 +4648,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>291</v>
       </c>
       <c r="C79" s="177" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="53"/>
@@ -5731,7 +5731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2525E-AD7B-B44E-BB20-11D9FA093BCF}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
@@ -6380,7 +6380,7 @@
         <v>267</v>
       </c>
       <c r="O38" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P38" s="164"/>
     </row>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>291</v>
@@ -8673,8 +8673,8 @@
   <dimension ref="A1:AB179"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8802,7 +8802,7 @@
         <v>1.08</v>
       </c>
       <c r="F3" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" s="145" t="s">
         <v>291</v>
@@ -8893,7 +8893,7 @@
         <v>1.3589E-2</v>
       </c>
       <c r="F4" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G4" s="145" t="s">
         <v>291</v>
@@ -8985,7 +8985,7 @@
         <v>1.685675016</v>
       </c>
       <c r="F5" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="145" t="s">
         <v>291</v>
@@ -9077,7 +9077,7 @@
         <v>0.37231504100000001</v>
       </c>
       <c r="F6" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G6" s="145" t="s">
         <v>291</v>
@@ -9149,7 +9149,7 @@
         <v>2.1490015000000001E-2</v>
       </c>
       <c r="F7" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G7" s="145" t="s">
         <v>291</v>
@@ -9221,7 +9221,7 @@
         <v>0.55776571900000005</v>
       </c>
       <c r="F8" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G8" s="145" t="s">
         <v>291</v>
@@ -9293,7 +9293,7 @@
         <v>0.55097863800000002</v>
       </c>
       <c r="F9" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G9" s="145" t="s">
         <v>291</v>
@@ -9365,7 +9365,7 @@
         <v>0.37513751400000001</v>
       </c>
       <c r="F10" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G10" s="145" t="s">
         <v>291</v>
@@ -9437,7 +9437,7 @@
         <v>7.0199999999999997E-6</v>
       </c>
       <c r="F11" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G11" s="145" t="s">
         <v>291</v>
@@ -9509,7 +9509,7 @@
         <v>1.0499999999999999E-6</v>
       </c>
       <c r="F12" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G12" s="145" t="s">
         <v>291</v>
@@ -9581,7 +9581,7 @@
         <v>2.59E-8</v>
       </c>
       <c r="F13" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G13" s="145" t="s">
         <v>291</v>
@@ -9710,7 +9710,7 @@
         <v>1.6986666666666668E-5</v>
       </c>
       <c r="F15" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G15" s="145"/>
       <c r="H15" s="145"/>
@@ -9784,7 +9784,7 @@
         <v>4.2033333333333335E-6</v>
       </c>
       <c r="F16" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G16" s="145"/>
       <c r="H16" s="145"/>
@@ -9857,7 +9857,7 @@
         <v>1.08</v>
       </c>
       <c r="F17" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G17" s="145" t="s">
         <v>291</v>
@@ -9929,7 +9929,7 @@
         <v>1.3589E-2</v>
       </c>
       <c r="F18" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G18" s="145" t="s">
         <v>291</v>
@@ -10001,7 +10001,7 @@
         <v>1.7269509999999999</v>
       </c>
       <c r="F19" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G19" s="145" t="s">
         <v>291</v>
@@ -10073,7 +10073,7 @@
         <v>0.378965</v>
       </c>
       <c r="F20" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G20" s="145" t="s">
         <v>291</v>
@@ -10145,7 +10145,7 @@
         <v>2.1873900000000002E-2</v>
       </c>
       <c r="F21" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G21" s="145" t="s">
         <v>291</v>
@@ -10217,7 +10217,7 @@
         <v>0.56938200000000005</v>
       </c>
       <c r="F22" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G22" s="145" t="s">
         <v>291</v>
@@ -10289,7 +10289,7 @@
         <v>0.53973700000000002</v>
       </c>
       <c r="F23" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G23" s="145" t="s">
         <v>291</v>
@@ -10361,7 +10361,7 @@
         <v>0.37513800000000003</v>
       </c>
       <c r="F24" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G24" s="145" t="s">
         <v>291</v>
@@ -10491,7 +10491,7 @@
         <v>1.08</v>
       </c>
       <c r="F26" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G26" s="145" t="s">
         <v>291</v>
@@ -10563,7 +10563,7 @@
         <v>1.3589E-2</v>
       </c>
       <c r="F27" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G27" s="145" t="s">
         <v>291</v>
@@ -10635,7 +10635,7 @@
         <v>1.608954346</v>
       </c>
       <c r="F28" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G28" s="145" t="s">
         <v>291</v>
@@ -10707,7 +10707,7 @@
         <v>0.35971392299999999</v>
       </c>
       <c r="F29" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G29" s="145" t="s">
         <v>291</v>
@@ -10779,7 +10779,7 @@
         <v>2.076296E-2</v>
       </c>
       <c r="F30" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G30" s="145" t="s">
         <v>291</v>
@@ -10851,7 +10851,7 @@
         <v>0.52814087300000001</v>
       </c>
       <c r="F31" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G31" s="145" t="s">
         <v>291</v>
@@ -10923,7 +10923,7 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="F32" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G32" s="145" t="s">
         <v>291</v>
@@ -10995,7 +10995,7 @@
         <v>0.375</v>
       </c>
       <c r="F33" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G33" s="145" t="s">
         <v>291</v>
@@ -11125,7 +11125,7 @@
         <v>1.08</v>
       </c>
       <c r="F35" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G35" s="145" t="s">
         <v>291</v>
@@ -11197,7 +11197,7 @@
         <v>1.3589E-2</v>
       </c>
       <c r="F36" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G36" s="145" t="s">
         <v>291</v>
@@ -11269,7 +11269,7 @@
         <v>1.6234472520000001</v>
       </c>
       <c r="F37" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G37" s="145" t="s">
         <v>291</v>
@@ -11359,7 +11359,7 @@
         <v>0.36528645500000001</v>
       </c>
       <c r="F38" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G38" s="145" t="s">
         <v>291</v>
@@ -11431,7 +11431,7 @@
         <v>2.1084520999999998E-2</v>
       </c>
       <c r="F39" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G39" s="145" t="s">
         <v>291</v>
@@ -11503,7 +11503,7 @@
         <v>0.54593769599999997</v>
       </c>
       <c r="F40" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G40" s="145" t="s">
         <v>291</v>
@@ -11575,7 +11575,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="F41" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G41" s="145" t="s">
         <v>291</v>
@@ -11647,7 +11647,7 @@
         <v>0.375</v>
       </c>
       <c r="F42" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G42" s="145" t="s">
         <v>291</v>
@@ -11777,7 +11777,7 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="F44" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G44" s="145" t="s">
         <v>291</v>
@@ -11849,7 +11849,7 @@
         <v>5.8760000000000001E-3</v>
       </c>
       <c r="F45" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G45" s="145" t="s">
         <v>291</v>
@@ -11921,7 +11921,7 @@
         <v>1.299220947</v>
       </c>
       <c r="F46" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G46" s="145" t="s">
         <v>291</v>
@@ -11993,7 +11993,7 @@
         <v>0.22677098700000001</v>
       </c>
       <c r="F47" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G47" s="145" t="s">
         <v>291</v>
@@ -12065,7 +12065,7 @@
         <v>1.3089124000000001E-2</v>
       </c>
       <c r="F48" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G48" s="145" t="s">
         <v>291</v>
@@ -12137,7 +12137,7 @@
         <v>0.40114244599999999</v>
       </c>
       <c r="F49" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G49" s="145" t="s">
         <v>291</v>
@@ -12209,7 +12209,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="F50" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G50" s="145" t="s">
         <v>291</v>
@@ -12281,7 +12281,7 @@
         <v>0.375</v>
       </c>
       <c r="F51" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G51" s="145" t="s">
         <v>291</v>
@@ -12354,7 +12354,7 @@
         <v>1.306588E-2</v>
       </c>
       <c r="F52" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G52" s="145"/>
       <c r="H52" s="145"/>
@@ -12427,7 +12427,7 @@
         <v>1.6624465641805999E-2</v>
       </c>
       <c r="F53" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G53" s="145"/>
       <c r="H53" s="145"/>
@@ -12501,7 +12501,7 @@
         <v>1.19439E-3</v>
       </c>
       <c r="F54" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G54" s="145"/>
       <c r="H54" s="145"/>
@@ -12575,7 +12575,7 @@
         <v>8.3446000000000006E-3</v>
       </c>
       <c r="F55" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G55" s="145"/>
       <c r="H55" s="145"/>
@@ -12704,7 +12704,7 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="F57" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G57" s="145" t="s">
         <v>291</v>
@@ -12776,7 +12776,7 @@
         <v>5.3200000000000001E-3</v>
       </c>
       <c r="F58" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G58" s="145" t="s">
         <v>291</v>
@@ -12848,7 +12848,7 @@
         <v>1.3149999999999999</v>
       </c>
       <c r="F59" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G59" s="145" t="s">
         <v>291</v>
@@ -12920,7 +12920,7 @@
         <v>0.2429</v>
       </c>
       <c r="F60" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G60" s="145" t="s">
         <v>291</v>
@@ -12992,7 +12992,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="F61" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G61" s="145" t="s">
         <v>291</v>
@@ -13064,7 +13064,7 @@
         <v>0.444135</v>
       </c>
       <c r="F62" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G62" s="145" t="s">
         <v>291</v>
@@ -13136,7 +13136,7 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="F63" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G63" s="145" t="s">
         <v>291</v>
@@ -13208,7 +13208,7 @@
         <v>0.375</v>
       </c>
       <c r="F64" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G64" s="145" t="s">
         <v>291</v>
@@ -13280,7 +13280,7 @@
         <v>7.9573614756276615E-7</v>
       </c>
       <c r="F65" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G65" s="145" t="s">
         <v>291</v>
@@ -13353,7 +13353,7 @@
         <v>1.6999999999999999E-7</v>
       </c>
       <c r="F66" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G66" s="145"/>
       <c r="H66" s="145"/>
@@ -13427,7 +13427,7 @@
         <v>3.5999999999999999E-7</v>
       </c>
       <c r="F67" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G67" s="145"/>
       <c r="H67" s="145"/>
@@ -13487,7 +13487,7 @@
       <c r="A68" s="156"/>
       <c r="B68" s="148"/>
       <c r="C68" s="149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D68" s="145"/>
       <c r="E68" s="151">
@@ -13495,7 +13495,7 @@
         <v>4.9700000000000002E-5</v>
       </c>
       <c r="F68" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G68" s="145" t="s">
         <v>291</v>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="B69" s="148"/>
       <c r="C69" s="149" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D69" s="145"/>
       <c r="E69" s="151">
@@ -13567,7 +13567,7 @@
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="F69" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G69" s="145" t="s">
         <v>291</v>
@@ -13626,7 +13626,7 @@
     <row r="70" spans="1:27" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="148"/>
       <c r="C70" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D70" s="145"/>
       <c r="E70" s="151">
@@ -13634,7 +13634,7 @@
         <v>3.5576373626373633E-6</v>
       </c>
       <c r="F70" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G70" s="145" t="s">
         <v>291</v>
@@ -13693,7 +13693,7 @@
     <row r="71" spans="1:27" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="148"/>
       <c r="C71" s="149" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D71" s="145"/>
       <c r="E71" s="151">
@@ -13701,7 +13701,7 @@
         <v>1.9014285714285714E-5</v>
       </c>
       <c r="F71" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G71" s="145" t="s">
         <v>291</v>
@@ -13760,7 +13760,7 @@
     <row r="72" spans="1:27" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="148"/>
       <c r="C72" s="149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D72" s="145"/>
       <c r="E72" s="151">
@@ -13768,7 +13768,7 @@
         <v>2.2463571428571431E-6</v>
       </c>
       <c r="F72" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G72" s="145" t="s">
         <v>291</v>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="B73" s="148"/>
       <c r="C73" s="149" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D73" s="145"/>
       <c r="E73" s="151">
@@ -13838,7 +13838,7 @@
         <v>8.5073891625615778E-5</v>
       </c>
       <c r="F73" s="145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G73" s="145" t="s">
         <v>291</v>
@@ -14181,7 +14181,7 @@
     </row>
     <row r="76" spans="1:27" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="185" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B76" s="148"/>
       <c r="C76" s="149"/>
@@ -20658,10 +20658,10 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="172" t="s">
         <v>320</v>
-      </c>
-      <c r="B2" s="172" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -20669,7 +20669,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" t="str">
         <f>A3&amp;" - "&amp;B3</f>
@@ -20681,7 +20681,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C7" si="0">A4&amp;" - "&amp;B4</f>
@@ -20693,7 +20693,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -20705,7 +20705,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -20717,7 +20717,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -21796,7 +21796,7 @@
         <v>1.476201226198731</v>
       </c>
       <c r="C78" s="177" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="53"/>
@@ -21804,7 +21804,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>291</v>
@@ -23538,7 +23538,7 @@
         <v>267</v>
       </c>
       <c r="O39" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P39" s="164"/>
     </row>
@@ -24804,7 +24804,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>291</v>
@@ -25813,7 +25813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4BC08B-9F7F-4241-B2C2-7519A576C242}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
@@ -26471,7 +26471,7 @@
         <v>33</v>
       </c>
       <c r="H37" s="159" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I37" s="159">
         <v>2</v>
@@ -26574,7 +26574,7 @@
         <v>267</v>
       </c>
       <c r="O45" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P45" s="164"/>
     </row>
@@ -26910,7 +26910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3FDC55-9632-5444-901B-DB23B1789476}">
   <dimension ref="A1:P216"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -28261,7 +28261,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>291</v>
@@ -29174,8 +29174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5119E759-29DE-9246-88CE-38D8A9AC2175}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -29207,7 +29207,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -29933,7 +29933,7 @@
         <v>267</v>
       </c>
       <c r="O45" s="164" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -30076,7 +30076,7 @@
       </c>
       <c r="B51" s="184">
         <f>G51*0.000001*B47</f>
-        <v>7.9573614756276615E-7</v>
+        <v>0</v>
       </c>
       <c r="C51" s="166" t="s">
         <v>184</v>
@@ -30087,11 +30087,8 @@
       <c r="F51" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="159">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="H51" s="159" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="I51" s="159">
         <v>2</v>
@@ -30221,7 +30218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBCA758-CC72-6448-A783-EFB36A4071DA}">
   <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -31633,10 +31630,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -32550,7 +32547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7D195-5A12-644E-89B4-F5FC66004D2A}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -33196,7 +33193,7 @@
         <v>267</v>
       </c>
       <c r="O39" s="164" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
